--- a/PhpTravel_And_Technology/TestCase/TEST CASE.xlsx
+++ b/PhpTravel_And_Technology/TestCase/TEST CASE.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uteka\Desktop\TEST CASE\PHP TRAVELS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05098E1-86E2-4FC8-839C-4C1C65839221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4F841861-4159-40A7-8770-346228523829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{90FA984F-00D5-414B-86E7-96FAB1B5FBAE}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="23280" windowHeight="13224" xr2:uid="{90FA984F-00D5-414B-86E7-96FAB1B5FBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>TID</t>
   </si>
@@ -280,6 +276,12 @@
   </si>
   <si>
     <t>The Recent Added Booking Details should be displayed, Validated  By clicking on Invoice Button should display the same booking details</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>"Hi Demo User"</t>
   </si>
 </sst>
 </file>
@@ -645,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44ECD908-E4A0-44FB-9770-8BCCBAB23F95}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +657,7 @@
     <col min="3" max="3" width="65.6640625" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" customWidth="1"/>
     <col min="5" max="5" width="134.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
     <col min="7" max="7" width="24.21875" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" customWidth="1"/>
@@ -703,6 +705,12 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -717,6 +725,9 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -728,6 +739,9 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -742,6 +756,9 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -756,6 +773,9 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -770,6 +790,9 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -780,6 +803,12 @@
       </c>
       <c r="E8" t="s">
         <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
